--- a/data/processed/IMT_Classification_Dataset_Reduced_Feature_Set_v10.xlsx
+++ b/data/processed/IMT_Classification_Dataset_Reduced_Feature_Set_v10.xlsx
@@ -522,7 +522,7 @@
         <v>21.12932166920234</v>
       </c>
       <c r="F2" t="n">
-        <v>19.45652757523184</v>
+        <v>19.46106196342392</v>
       </c>
       <c r="G2" t="n">
         <v>-12.91661291276676</v>
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.037037275334749</v>
+        <v>1.037038073744051</v>
       </c>
       <c r="E6" t="n">
         <v>12.91656316916488</v>
       </c>
       <c r="F6" t="n">
-        <v>10.42534963430567</v>
+        <v>10.4253549725155</v>
       </c>
       <c r="G6" t="n">
         <v>-12.72576788257812</v>
@@ -747,7 +747,7 @@
         <v>65.25621638510873</v>
       </c>
       <c r="F7" t="n">
-        <v>17.08502230155181</v>
+        <v>17.08603811642785</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1957017790631773</v>
+        <v>0.1957017790631787</v>
       </c>
       <c r="E9" t="n">
-        <v>12.89351196896488</v>
+        <v>13.23526472670633</v>
       </c>
       <c r="F9" t="n">
-        <v>21.59576622103683</v>
+        <v>21.61243444720867</v>
       </c>
       <c r="G9" t="n">
-        <v>-18.40139306831261</v>
+        <v>-18.40107193975965</v>
       </c>
       <c r="H9" t="n">
         <v>0.5900000000000001</v>
@@ -852,13 +852,13 @@
         <v>38.875</v>
       </c>
       <c r="K9" t="n">
-        <v>3.491120432437338</v>
+        <v>3.806513621624892</v>
       </c>
       <c r="L9" t="n">
-        <v>2.331183161246335</v>
+        <v>2.337490755495602</v>
       </c>
       <c r="M9" t="n">
-        <v>3.65451873894346</v>
+        <v>3.568373102479395</v>
       </c>
     </row>
     <row r="10">
@@ -972,7 +972,7 @@
         <v>20.06934853521019</v>
       </c>
       <c r="F12" t="n">
-        <v>19.45479502108784</v>
+        <v>19.45931016366834</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.1172117020542869</v>
+        <v>0.1172117020542854</v>
       </c>
       <c r="E13" t="n">
-        <v>10.27793581465862</v>
+        <v>10.2702011478472</v>
       </c>
       <c r="F13" t="n">
-        <v>8.827433771370124</v>
+        <v>8.827433771370696</v>
       </c>
       <c r="G13" t="n">
-        <v>-33.81087033261491</v>
+        <v>-33.81068315280351</v>
       </c>
       <c r="H13" t="n">
         <v>0.9527777777777778</v>
@@ -1032,13 +1032,13 @@
         <v>47.63888888888889</v>
       </c>
       <c r="K13" t="n">
-        <v>3.86872694369705</v>
+        <v>3.86070417488832</v>
       </c>
       <c r="L13" t="n">
-        <v>1.992857194308602</v>
+        <v>1.992857194308603</v>
       </c>
       <c r="M13" t="n">
-        <v>2.933553443721811</v>
+        <v>2.968528985412509</v>
       </c>
     </row>
     <row r="14">
@@ -1056,16 +1056,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3348212323138415</v>
+        <v>0.3348212323138412</v>
       </c>
       <c r="E14" t="n">
-        <v>16.45802927081107</v>
+        <v>16.45916859480443</v>
       </c>
       <c r="F14" t="n">
-        <v>7.076892085048883</v>
+        <v>7.076892085042886</v>
       </c>
       <c r="G14" t="n">
-        <v>-37.76554485923424</v>
+        <v>-37.76524178764701</v>
       </c>
       <c r="H14" t="n">
         <v>1.0128</v>
@@ -1077,13 +1077,13 @@
         <v>43.92</v>
       </c>
       <c r="K14" t="n">
-        <v>3.747985347884179</v>
+        <v>3.749097130512239</v>
       </c>
       <c r="L14" t="n">
         <v>1.907718178268321</v>
       </c>
       <c r="M14" t="n">
-        <v>2.813798134613378</v>
+        <v>2.813988826840875</v>
       </c>
     </row>
     <row r="15">
@@ -1101,16 +1101,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.1792270013389175</v>
+        <v>0.1792270013389161</v>
       </c>
       <c r="E15" t="n">
-        <v>10.39061901846406</v>
+        <v>10.39234438970874</v>
       </c>
       <c r="F15" t="n">
-        <v>12.71527035222468</v>
+        <v>12.7152703522196</v>
       </c>
       <c r="G15" t="n">
-        <v>-36.11947913074583</v>
+        <v>-36.11938691374243</v>
       </c>
       <c r="H15" t="n">
         <v>0.8927999999999999</v>
@@ -1122,13 +1122,13 @@
         <v>47.52</v>
       </c>
       <c r="K15" t="n">
-        <v>3.89560764215829</v>
+        <v>3.897426856211053</v>
       </c>
       <c r="L15" t="n">
         <v>2.004815359867996</v>
       </c>
       <c r="M15" t="n">
-        <v>2.92190081302018</v>
+        <v>2.925036916340864</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1197,7 @@
         <v>19.39168406104434</v>
       </c>
       <c r="F17" t="n">
-        <v>19.45483732454926</v>
+        <v>19.45936050540637</v>
       </c>
       <c r="G17" t="n">
         <v>-90.57137933165134</v>
@@ -1326,16 +1326,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4612328134588251</v>
+        <v>0.4612328134588247</v>
       </c>
       <c r="E20" t="n">
-        <v>16.12633861799301</v>
+        <v>16.05337114461261</v>
       </c>
       <c r="F20" t="n">
-        <v>8.219416899913824</v>
+        <v>8.232910724439432</v>
       </c>
       <c r="G20" t="n">
-        <v>-48.44328634794823</v>
+        <v>-48.44477648911419</v>
       </c>
       <c r="H20" t="n">
         <v>0.7911111111111113</v>
@@ -1347,13 +1347,13 @@
         <v>32.44444444444444</v>
       </c>
       <c r="K20" t="n">
-        <v>3.450124167254709</v>
+        <v>3.390842593115297</v>
       </c>
       <c r="L20" t="n">
-        <v>1.90125481586309</v>
+        <v>1.904648240662049</v>
       </c>
       <c r="M20" t="n">
-        <v>2.61634735861291</v>
+        <v>2.773999034220097</v>
       </c>
     </row>
     <row r="21">
@@ -1377,7 +1377,7 @@
         <v>11.17385474300496</v>
       </c>
       <c r="F21" t="n">
-        <v>16.99262024346225</v>
+        <v>16.99590070920861</v>
       </c>
       <c r="G21" t="n">
         <v>-49.73709238414783</v>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4686399117610905</v>
+        <v>0.4686402033191228</v>
       </c>
       <c r="E22" t="n">
         <v>11.73795344775955</v>
@@ -1467,7 +1467,7 @@
         <v>11.43581668347166</v>
       </c>
       <c r="F23" t="n">
-        <v>16.84009564140447</v>
+        <v>16.84336397883618</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>11.17115489996762</v>
       </c>
       <c r="F24" t="n">
-        <v>16.99452222354741</v>
+        <v>16.99780289471939</v>
       </c>
       <c r="G24" t="n">
         <v>-50.39395832013682</v>
@@ -1557,7 +1557,7 @@
         <v>11.38941216353107</v>
       </c>
       <c r="F25" t="n">
-        <v>16.99110359909917</v>
+        <v>16.99438387872253</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1596,13 +1596,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.2078656148746096</v>
+        <v>0.2078656139255903</v>
       </c>
       <c r="E26" t="n">
-        <v>12.28258427424988</v>
+        <v>12.35030324287264</v>
       </c>
       <c r="F26" t="n">
-        <v>19.75680442329188</v>
+        <v>19.76010747556753</v>
       </c>
       <c r="G26" t="n">
         <v>-99.24952217323883</v>
@@ -1647,7 +1647,7 @@
         <v>19.3411428971889</v>
       </c>
       <c r="F27" t="n">
-        <v>19.45377479825513</v>
+        <v>19.45829725525834</v>
       </c>
       <c r="G27" t="n">
         <v>-89.95278552042961</v>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.2704255602338705</v>
+        <v>0.2704255602338838</v>
       </c>
       <c r="E28" t="n">
         <v>64.82826480610899</v>
@@ -1731,13 +1731,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.2250751372418766</v>
+        <v>0.2250751351476792</v>
       </c>
       <c r="E29" t="n">
-        <v>12.26834527342051</v>
+        <v>12.33393897902086</v>
       </c>
       <c r="F29" t="n">
-        <v>19.78508919823029</v>
+        <v>19.78828856168074</v>
       </c>
       <c r="G29" t="n">
         <v>-99.74642438310991</v>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2845177068105241</v>
+        <v>0.2845177068105731</v>
       </c>
       <c r="E30" t="n">
         <v>64.8268833592535</v>
@@ -1827,7 +1827,7 @@
         <v>11.8976741137979</v>
       </c>
       <c r="F31" t="n">
-        <v>16.95389343134944</v>
+        <v>16.95715704021907</v>
       </c>
       <c r="G31" t="n">
         <v>-47.55799255786822</v>
@@ -1872,7 +1872,7 @@
         <v>11.40994744980559</v>
       </c>
       <c r="F32" t="n">
-        <v>16.83976335707927</v>
+        <v>16.84303825673762</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1911,16 +1911,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.3380906197485122</v>
+        <v>0.3380906197485121</v>
       </c>
       <c r="E33" t="n">
-        <v>12.95012665816691</v>
+        <v>12.89925466126084</v>
       </c>
       <c r="F33" t="n">
-        <v>14.84247793525028</v>
+        <v>14.86591932986387</v>
       </c>
       <c r="G33" t="n">
-        <v>-46.5522439420407</v>
+        <v>-46.55493901665557</v>
       </c>
       <c r="H33" t="n">
         <v>0.551111111111111</v>
@@ -1932,13 +1932,13 @@
         <v>33.33333333333334</v>
       </c>
       <c r="K33" t="n">
-        <v>3.555580331675829</v>
+        <v>3.511471405934071</v>
       </c>
       <c r="L33" t="n">
-        <v>1.979610664069092</v>
+        <v>1.986010854739812</v>
       </c>
       <c r="M33" t="n">
-        <v>2.68326706551926</v>
+        <v>2.878784051328927</v>
       </c>
     </row>
     <row r="34">
@@ -1956,13 +1956,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.8999050219768793</v>
+        <v>0.8999143497145728</v>
       </c>
       <c r="E34" t="n">
         <v>63.30917705443777</v>
       </c>
       <c r="F34" t="n">
-        <v>10.61169152104977</v>
+        <v>10.6117814297242</v>
       </c>
       <c r="G34" t="n">
         <v>-93.69511574735621</v>
@@ -2007,7 +2007,7 @@
         <v>65.0250726954314</v>
       </c>
       <c r="F35" t="n">
-        <v>17.04466425706773</v>
+        <v>17.04576707439455</v>
       </c>
       <c r="G35" t="n">
         <v>-94.0871593435299</v>
@@ -2052,7 +2052,7 @@
         <v>15.69917204430411</v>
       </c>
       <c r="F36" t="n">
-        <v>19.45447452436139</v>
+        <v>19.45896468545904</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>12.27755395765023</v>
+        <v>12.34477734248228</v>
       </c>
       <c r="F37" t="n">
-        <v>19.69838179213802</v>
+        <v>19.7016608834317</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>20.26216745736381</v>
       </c>
       <c r="F38" t="n">
-        <v>19.4619174105221</v>
+        <v>19.46644201559148</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.3088024213467776</v>
+        <v>0.3087679259453534</v>
       </c>
       <c r="E44" t="n">
         <v>31.60241352104443</v>
@@ -2451,16 +2451,16 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.3227881231463778</v>
+        <v>0.3227881231463773</v>
       </c>
       <c r="E45" t="n">
-        <v>8.356268912906112</v>
+        <v>8.963666347215746</v>
       </c>
       <c r="F45" t="n">
-        <v>13.60238430793818</v>
+        <v>13.60238430793532</v>
       </c>
       <c r="G45" t="n">
-        <v>-45.10673687407532</v>
+        <v>-45.10745176135564</v>
       </c>
       <c r="H45" t="n">
         <v>0.5688888888888889</v>
@@ -2472,13 +2472,13 @@
         <v>39.11111111111111</v>
       </c>
       <c r="K45" t="n">
-        <v>2.512707328464473</v>
+        <v>2.810601646483547</v>
       </c>
       <c r="L45" t="n">
         <v>2.010207987529545</v>
       </c>
       <c r="M45" t="n">
-        <v>2.880690319801208</v>
+        <v>2.927404889909111</v>
       </c>
     </row>
     <row r="46">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.7266734056941585</v>
+        <v>0.7295258432480499</v>
       </c>
       <c r="E46" t="n">
         <v>5.884797567835469</v>
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8993795244105907</v>
+        <v>0.8993888028380758</v>
       </c>
       <c r="E47" t="n">
         <v>63.30340692452896</v>
       </c>
       <c r="F47" t="n">
-        <v>10.61460240397062</v>
+        <v>10.61469202003931</v>
       </c>
       <c r="G47" t="n">
         <v>-93.85550180097401</v>
@@ -2592,7 +2592,7 @@
         <v>19.35447535626848</v>
       </c>
       <c r="F48" t="n">
-        <v>19.45803122235705</v>
+        <v>19.462548799989</v>
       </c>
       <c r="G48" t="n">
         <v>-90.78906347404333</v>
@@ -2721,16 +2721,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1644496717225884</v>
+        <v>0.1644496717225894</v>
       </c>
       <c r="E51" t="n">
-        <v>9.953087154069038</v>
+        <v>9.905228852590291</v>
       </c>
       <c r="F51" t="n">
-        <v>13.6870525618895</v>
+        <v>13.71476265062336</v>
       </c>
       <c r="G51" t="n">
-        <v>-46.43866148438565</v>
+        <v>-46.44155797721291</v>
       </c>
       <c r="H51" t="n">
         <v>0.551111111111111</v>
@@ -2742,13 +2742,13 @@
         <v>34.66666666666666</v>
       </c>
       <c r="K51" t="n">
-        <v>3.558181396092672</v>
+        <v>3.516594574304598</v>
       </c>
       <c r="L51" t="n">
-        <v>1.983670923430409</v>
+        <v>1.991272194803296</v>
       </c>
       <c r="M51" t="n">
-        <v>2.684563480839075</v>
+        <v>2.883725272582437</v>
       </c>
     </row>
     <row r="52">
@@ -2766,13 +2766,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.8996471934905194</v>
+        <v>0.8996565132415569</v>
       </c>
       <c r="E52" t="n">
         <v>63.30419852070658</v>
       </c>
       <c r="F52" t="n">
-        <v>10.61127110726038</v>
+        <v>10.61136098654427</v>
       </c>
       <c r="G52" t="n">
         <v>-93.83349865910459</v>
@@ -2817,7 +2817,7 @@
         <v>65.02037157350847</v>
       </c>
       <c r="F53" t="n">
-        <v>17.04593302235568</v>
+        <v>17.04703600266406</v>
       </c>
       <c r="G53" t="n">
         <v>-94.21783133960514</v>
@@ -2862,7 +2862,7 @@
         <v>11.64824464781742</v>
       </c>
       <c r="F54" t="n">
-        <v>16.81567464722414</v>
+        <v>16.81886275822427</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2904,10 +2904,10 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>15.68772940763382</v>
+        <v>15.68772940763381</v>
       </c>
       <c r="F55" t="n">
-        <v>19.44865429759171</v>
+        <v>19.45314114585156</v>
       </c>
       <c r="G55" t="n">
         <v>-96.30110801933084</v>
@@ -2946,13 +2946,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.2068887479050541</v>
+        <v>0.2068887469889749</v>
       </c>
       <c r="E56" t="n">
-        <v>12.2770462375536</v>
+        <v>12.34423682256944</v>
       </c>
       <c r="F56" t="n">
-        <v>19.75201647765665</v>
+        <v>19.75529377139415</v>
       </c>
       <c r="G56" t="n">
         <v>-99.96060757223859</v>
@@ -2997,7 +2997,7 @@
         <v>19.39693631111906</v>
       </c>
       <c r="F57" t="n">
-        <v>19.45657637086851</v>
+        <v>19.46109666506059</v>
       </c>
       <c r="G57" t="n">
         <v>-90.68036231698932</v>
@@ -3081,13 +3081,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1.028893888584455</v>
+        <v>1.028916651247407</v>
       </c>
       <c r="E59" t="n">
         <v>63.58556367387286</v>
       </c>
       <c r="F59" t="n">
-        <v>10.27044329990219</v>
+        <v>10.27059225305688</v>
       </c>
       <c r="G59" t="n">
         <v>-87.53765123760807</v>
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.2085147444682414</v>
+        <v>0.2089074511036428</v>
       </c>
       <c r="E61" t="n">
         <v>8.878353973588865</v>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.4079785134548447</v>
+        <v>0.4093368566648341</v>
       </c>
       <c r="E62" t="n">
         <v>11.87050287969283</v>
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.4734496243262215</v>
+        <v>0.4734496243262211</v>
       </c>
       <c r="E63" t="n">
-        <v>16.91859195346374</v>
+        <v>16.8612798442209</v>
       </c>
       <c r="F63" t="n">
-        <v>13.84601722061992</v>
+        <v>13.79049900954405</v>
       </c>
       <c r="G63" t="n">
-        <v>-47.2379310087589</v>
+        <v>-47.24043821961471</v>
       </c>
       <c r="H63" t="n">
         <v>0.5155555555555557</v>
@@ -3282,13 +3282,13 @@
         <v>33.77777777777778</v>
       </c>
       <c r="K63" t="n">
-        <v>3.528108396860845</v>
+        <v>3.479251908320751</v>
       </c>
       <c r="L63" t="n">
-        <v>1.972854421115638</v>
+        <v>1.95796140383459</v>
       </c>
       <c r="M63" t="n">
-        <v>2.630294557738832</v>
+        <v>2.858229340962541</v>
       </c>
     </row>
     <row r="64">
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.579658709936283</v>
+        <v>0.5796587099358538</v>
       </c>
       <c r="E64" t="n">
         <v>11.53118653620102</v>
@@ -3351,16 +3351,16 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.1514958112046024</v>
+        <v>0.1514958112046015</v>
       </c>
       <c r="E65" t="n">
-        <v>9.927379565898642</v>
+        <v>9.871708476829831</v>
       </c>
       <c r="F65" t="n">
-        <v>10.33471514566295</v>
+        <v>10.36015883046989</v>
       </c>
       <c r="G65" t="n">
-        <v>-46.92078229187086</v>
+        <v>-46.92366497057576</v>
       </c>
       <c r="H65" t="n">
         <v>0.551111111111111</v>
@@ -3372,13 +3372,13 @@
         <v>35.55555555555556</v>
       </c>
       <c r="K65" t="n">
-        <v>3.535721099719264</v>
+        <v>3.488040977528234</v>
       </c>
       <c r="L65" t="n">
-        <v>1.963095713494269</v>
+        <v>1.969928849835062</v>
       </c>
       <c r="M65" t="n">
-        <v>2.673363059555509</v>
+        <v>2.857819577732834</v>
       </c>
     </row>
     <row r="66">
@@ -3396,13 +3396,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.212395131666034</v>
+        <v>0.212395130412016</v>
       </c>
       <c r="E66" t="n">
-        <v>12.27448745080232</v>
+        <v>12.3410272449513</v>
       </c>
       <c r="F66" t="n">
-        <v>19.75218342695121</v>
+        <v>19.75542895652856</v>
       </c>
       <c r="G66" t="n">
         <v>-99.85129302331082</v>
@@ -3441,13 +3441,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1.028166317724049</v>
+        <v>1.028188907993338</v>
       </c>
       <c r="E67" t="n">
         <v>63.58612880700434</v>
       </c>
       <c r="F67" t="n">
-        <v>10.28061567689576</v>
+        <v>10.28076412946236</v>
       </c>
       <c r="G67" t="n">
         <v>-87.568525933538</v>
@@ -3537,7 +3537,7 @@
         <v>21.1211377206363</v>
       </c>
       <c r="F69" t="n">
-        <v>19.45160965291609</v>
+        <v>19.45613194694949</v>
       </c>
       <c r="G69" t="n">
         <v>-12.97567713319671</v>
@@ -3576,13 +3576,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1.033594021493872</v>
+        <v>1.033617452048364</v>
       </c>
       <c r="E70" t="n">
         <v>63.59292743059277</v>
       </c>
       <c r="F70" t="n">
-        <v>10.28364774434499</v>
+        <v>10.28380007529882</v>
       </c>
       <c r="G70" t="n">
         <v>-83.1740642636925</v>
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.2615731071652247</v>
+        <v>0.2615731071652237</v>
       </c>
       <c r="E71" t="n">
-        <v>12.02955729415996</v>
+        <v>10.41136951194609</v>
       </c>
       <c r="F71" t="n">
-        <v>13.20280535268414</v>
+        <v>13.06201268711318</v>
       </c>
       <c r="G71" t="n">
-        <v>-30.8308103696997</v>
+        <v>-30.83110363324286</v>
       </c>
       <c r="H71" t="n">
         <v>1.022040816326531</v>
@@ -3642,13 +3642,13 @@
         <v>56.48979591836735</v>
       </c>
       <c r="K71" t="n">
-        <v>6.998809716123163</v>
+        <v>3.917599999999999</v>
       </c>
       <c r="L71" t="n">
-        <v>2.08360155</v>
+        <v>2.042001033333333</v>
       </c>
       <c r="M71" t="n">
-        <v>3.000122247743692</v>
+        <v>3.024214055192462</v>
       </c>
     </row>
     <row r="72">
@@ -3666,16 +3666,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.2472604308766823</v>
+        <v>0.2472604308766802</v>
       </c>
       <c r="E72" t="n">
-        <v>11.92304527672917</v>
+        <v>10.28012141565487</v>
       </c>
       <c r="F72" t="n">
-        <v>9.681410174561439</v>
+        <v>9.603554711946128</v>
       </c>
       <c r="G72" t="n">
-        <v>-31.42648985167882</v>
+        <v>-31.42653358775751</v>
       </c>
       <c r="H72" t="n">
         <v>1.015510204081633</v>
@@ -3687,13 +3687,13 @@
         <v>55.18367346938776</v>
       </c>
       <c r="K72" t="n">
-        <v>6.933059174888094</v>
+        <v>3.871</v>
       </c>
       <c r="L72" t="n">
-        <v>1.9996657</v>
+        <v>1.978277133333333</v>
       </c>
       <c r="M72" t="n">
-        <v>2.932195347157934</v>
+        <v>2.983588078211255</v>
       </c>
     </row>
     <row r="73">
@@ -3711,16 +3711,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2017370301637578</v>
+        <v>0.2017370301637576</v>
       </c>
       <c r="E73" t="n">
-        <v>10.39586056527095</v>
+        <v>10.33158249323398</v>
       </c>
       <c r="F73" t="n">
-        <v>9.515376593867099</v>
+        <v>9.477925339373257</v>
       </c>
       <c r="G73" t="n">
-        <v>-33.52110856801137</v>
+        <v>-33.52015049710782</v>
       </c>
       <c r="H73" t="n">
         <v>0.967361111111111</v>
@@ -3732,13 +3732,13 @@
         <v>53.18055555555556</v>
       </c>
       <c r="K73" t="n">
-        <v>3.995308799999997</v>
+        <v>3.925302933333333</v>
       </c>
       <c r="L73" t="n">
-        <v>1.975578284938667</v>
+        <v>1.965479313251556</v>
       </c>
       <c r="M73" t="n">
-        <v>2.855527444934263</v>
+        <v>2.890566503838524</v>
       </c>
     </row>
     <row r="74">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.1540658142245706</v>
+        <v>0.1546679024608471</v>
       </c>
       <c r="E76" t="n">
         <v>16.35080238898988</v>
@@ -3936,16 +3936,16 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.1870685484865831</v>
+        <v>0.1870279976577775</v>
       </c>
       <c r="E78" t="n">
-        <v>18.52483317951593</v>
+        <v>16.71439176626826</v>
       </c>
       <c r="F78" t="n">
-        <v>8.820620038469993</v>
+        <v>8.611367651675277</v>
       </c>
       <c r="G78" t="n">
-        <v>-28.81685077292733</v>
+        <v>-28.81705021173564</v>
       </c>
       <c r="H78" t="n">
         <v>1.04</v>
@@ -3957,13 +3957,13 @@
         <v>54.85714285714285</v>
       </c>
       <c r="K78" t="n">
-        <v>7.149184394041042</v>
+        <v>3.765</v>
       </c>
       <c r="L78" t="n">
-        <v>2.062565</v>
+        <v>2.002543333333334</v>
       </c>
       <c r="M78" t="n">
-        <v>2.966017624615935</v>
+        <v>2.985025449313239</v>
       </c>
     </row>
     <row r="79">
@@ -3981,16 +3981,16 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.3594134842849182</v>
+        <v>0.3593894550165262</v>
       </c>
       <c r="E79" t="n">
-        <v>17.60428926652129</v>
+        <v>15.96917282659836</v>
       </c>
       <c r="F79" t="n">
-        <v>10.65952765089247</v>
+        <v>10.57707887629589</v>
       </c>
       <c r="G79" t="n">
-        <v>-29.17058129874964</v>
+        <v>-29.17038872495749</v>
       </c>
       <c r="H79" t="n">
         <v>1.038367346938776</v>
@@ -4002,13 +4002,13 @@
         <v>53.55102040816327</v>
       </c>
       <c r="K79" t="n">
-        <v>6.764493537582839</v>
+        <v>3.8258</v>
       </c>
       <c r="L79" t="n">
-        <v>1.97945</v>
+        <v>1.957266666666667</v>
       </c>
       <c r="M79" t="n">
-        <v>2.889769753405442</v>
+        <v>2.934181280665197</v>
       </c>
     </row>
     <row r="80">
@@ -4257,7 +4257,7 @@
         <v>11.30141322398208</v>
       </c>
       <c r="F85" t="n">
-        <v>19.46127539524361</v>
+        <v>19.46573915849594</v>
       </c>
       <c r="G85" t="n">
         <v>-49.36854386331759</v>
@@ -4302,7 +4302,7 @@
         <v>11.18865433176958</v>
       </c>
       <c r="F86" t="n">
-        <v>16.97906877318754</v>
+        <v>16.98234243177098</v>
       </c>
       <c r="G86" t="n">
         <v>-50.68552200209722</v>
@@ -4347,7 +4347,7 @@
         <v>11.98624197938578</v>
       </c>
       <c r="F87" t="n">
-        <v>19.43277636758793</v>
+        <v>19.43723291627429</v>
       </c>
       <c r="G87" t="n">
         <v>-46.74160811127511</v>
@@ -4437,7 +4437,7 @@
         <v>11.87309370201472</v>
       </c>
       <c r="F89" t="n">
-        <v>16.81864201551392</v>
+        <v>16.82190964377708</v>
       </c>
       <c r="G89" t="n">
         <v>-47.78965248370432</v>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.170012747836258</v>
+        <v>0.1694029238601541</v>
       </c>
       <c r="E90" t="n">
         <v>9.072554617789944</v>
@@ -4572,7 +4572,7 @@
         <v>11.39844547627659</v>
       </c>
       <c r="F92" t="n">
-        <v>17.00354224950715</v>
+        <v>17.00682691201881</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -4614,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>14.02264936728855</v>
+        <v>14.10578756153508</v>
       </c>
       <c r="F93" t="n">
-        <v>6.540886550319841</v>
+        <v>6.57939153512632</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -4746,16 +4746,16 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.1494292564149003</v>
+        <v>0.1494292564149007</v>
       </c>
       <c r="E96" t="n">
-        <v>7.584741821723497</v>
+        <v>8.230265451913082</v>
       </c>
       <c r="F96" t="n">
-        <v>15.86678246881216</v>
+        <v>15.86678246880841</v>
       </c>
       <c r="G96" t="n">
-        <v>-45.06711230169051</v>
+        <v>-45.06796578887898</v>
       </c>
       <c r="H96" t="n">
         <v>0.48</v>
@@ -4767,13 +4767,13 @@
         <v>42.66666666666666</v>
       </c>
       <c r="K96" t="n">
-        <v>2.476184127781528</v>
+        <v>2.785375122467102</v>
       </c>
       <c r="L96" t="n">
         <v>2.007761872140105</v>
       </c>
       <c r="M96" t="n">
-        <v>2.879542216391946</v>
+        <v>2.921623089286424</v>
       </c>
     </row>
     <row r="97">
@@ -4797,7 +4797,7 @@
         <v>19.10491131811617</v>
       </c>
       <c r="F97" t="n">
-        <v>19.45103090028092</v>
+        <v>19.45555203179897</v>
       </c>
       <c r="G97" t="n">
         <v>-84.7456144076002</v>
@@ -4971,16 +4971,16 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.05422856717131298</v>
+        <v>0.05422856717131365</v>
       </c>
       <c r="E101" t="n">
-        <v>86.95286016207095</v>
+        <v>87.0577664282692</v>
       </c>
       <c r="F101" t="n">
-        <v>19.2286232221439</v>
+        <v>19.22862322213764</v>
       </c>
       <c r="G101" t="n">
-        <v>-37.74408107561251</v>
+        <v>-37.74301246347715</v>
       </c>
       <c r="H101" t="n">
         <v>0.8783999999999998</v>
@@ -4992,13 +4992,13 @@
         <v>26.4</v>
       </c>
       <c r="K101" t="n">
-        <v>3.135882048824992</v>
+        <v>3.209199252951914</v>
       </c>
       <c r="L101" t="n">
         <v>1.915279012351449</v>
       </c>
       <c r="M101" t="n">
-        <v>2.651882344856056</v>
+        <v>2.724010126290139</v>
       </c>
     </row>
     <row r="102">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.1632888735352321</v>
+        <v>0.1632916566906324</v>
       </c>
       <c r="E102" t="n">
         <v>11.06577628822614</v>
@@ -5109,10 +5109,10 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>48.64534151518069</v>
+        <v>48.64534151518068</v>
       </c>
       <c r="F104" t="n">
-        <v>17.23129632016648</v>
+        <v>17.23244363469347</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.2095791981585198</v>
+        <v>0.2090887811590335</v>
       </c>
       <c r="E109" t="n">
         <v>15.25472793413507</v>
@@ -5466,16 +5466,16 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.1517790260550576</v>
+        <v>0.1517790260550564</v>
       </c>
       <c r="E112" t="n">
-        <v>20.07090861341964</v>
+        <v>19.99639217856899</v>
       </c>
       <c r="F112" t="n">
-        <v>12.65323740949982</v>
+        <v>12.67010851976014</v>
       </c>
       <c r="G112" t="n">
-        <v>-31.39312338059116</v>
+        <v>-31.39266181162995</v>
       </c>
       <c r="H112" t="n">
         <v>0.9240816326530611</v>
@@ -5487,13 +5487,13 @@
         <v>39.51020408163265</v>
       </c>
       <c r="K112" t="n">
-        <v>3.438236817405636</v>
+        <v>3.37813155777626</v>
       </c>
       <c r="L112" t="n">
-        <v>2.035845308237642</v>
+        <v>2.040712947923991</v>
       </c>
       <c r="M112" t="n">
-        <v>2.962034103630331</v>
+        <v>2.947160808586624</v>
       </c>
     </row>
     <row r="113">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.1443372460813747</v>
+        <v>0.1443571652413583</v>
       </c>
       <c r="E113" t="n">
-        <v>16.19770621287739</v>
+        <v>16.20173639445741</v>
       </c>
       <c r="F113" t="n">
-        <v>6.876931183789176</v>
+        <v>6.87693118378376</v>
       </c>
       <c r="G113" t="n">
-        <v>-35.84378978134622</v>
+        <v>-35.8435188275286</v>
       </c>
       <c r="H113" t="n">
         <v>1.031208</v>
@@ -5532,13 +5532,13 @@
         <v>46.39752</v>
       </c>
       <c r="K113" t="n">
-        <v>3.794220421016841</v>
+        <v>3.798253894689122</v>
       </c>
       <c r="L113" t="n">
-        <v>1.926364214220649</v>
+        <v>1.926364214220648</v>
       </c>
       <c r="M113" t="n">
-        <v>2.850590792448725</v>
+        <v>2.852278297128032</v>
       </c>
     </row>
     <row r="114">
@@ -5556,16 +5556,16 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.2158618766120091</v>
+        <v>0.2158617797520802</v>
       </c>
       <c r="E114" t="n">
-        <v>20.32129746245295</v>
+        <v>20.35776077445875</v>
       </c>
       <c r="F114" t="n">
-        <v>14.6016042618712</v>
+        <v>14.60160426186975</v>
       </c>
       <c r="G114" t="n">
-        <v>-29.81361393356306</v>
+        <v>-29.81358724632855</v>
       </c>
       <c r="H114" t="n">
         <v>1.02716049382716</v>
@@ -5577,13 +5577,13 @@
         <v>42.09876543209877</v>
       </c>
       <c r="K114" t="n">
-        <v>3.656865865995584</v>
+        <v>3.691045118619255</v>
       </c>
       <c r="L114" t="n">
         <v>1.931945279429767</v>
       </c>
       <c r="M114" t="n">
-        <v>2.998158406609579</v>
+        <v>3.039436748032627</v>
       </c>
     </row>
     <row r="115">
@@ -5691,7 +5691,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.1589542155461564</v>
+        <v>0.1591192490228518</v>
       </c>
       <c r="E117" t="n">
         <v>16.46804478710224</v>
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.1669071934297356</v>
+        <v>0.1674793003338301</v>
       </c>
       <c r="E118" t="n">
         <v>16.22118166959747</v>
@@ -5781,7 +5781,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.2624832784885889</v>
+        <v>0.2632022982089993</v>
       </c>
       <c r="E119" t="n">
         <v>14.13382808778058</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.1274466560639223</v>
+        <v>0.1280608086396501</v>
       </c>
       <c r="E126" t="n">
         <v>16.72679027057675</v>
@@ -6186,13 +6186,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.9090891879682885</v>
+        <v>0.9090990235637255</v>
       </c>
       <c r="E128" t="n">
         <v>63.30174336355851</v>
       </c>
       <c r="F128" t="n">
-        <v>10.5867629782573</v>
+        <v>10.58685506972605</v>
       </c>
       <c r="G128" t="n">
         <v>-93.9017420040924</v>
@@ -6237,7 +6237,7 @@
         <v>65.01817590804164</v>
       </c>
       <c r="F129" t="n">
-        <v>17.04781455152257</v>
+        <v>17.04891240932892</v>
       </c>
       <c r="G129" t="n">
         <v>-94.27886187528702</v>
@@ -6279,10 +6279,10 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>15.89533155412857</v>
+        <v>15.89533155412859</v>
       </c>
       <c r="F130" t="n">
-        <v>19.4497836165895</v>
+        <v>19.45427219332549</v>
       </c>
       <c r="G130" t="n">
         <v>-96.49380542324376</v>
@@ -6321,13 +6321,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.2064241382334265</v>
+        <v>0.2064241375202597</v>
       </c>
       <c r="E131" t="n">
-        <v>12.28086355454316</v>
+        <v>12.34869889248238</v>
       </c>
       <c r="F131" t="n">
-        <v>19.75954796198835</v>
+        <v>19.76285665966073</v>
       </c>
       <c r="G131" t="n">
         <v>-100.0901822820951</v>
@@ -6552,7 +6552,7 @@
         <v>14.26088582917022</v>
       </c>
       <c r="F136" t="n">
-        <v>19.43013388728562</v>
+        <v>19.43459300078226</v>
       </c>
       <c r="G136" t="n">
         <v>-13.27947654896824</v>
@@ -6639,10 +6639,10 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>18.88238934210454</v>
+        <v>18.94231301657194</v>
       </c>
       <c r="F138" t="n">
-        <v>13.90140488262384</v>
+        <v>13.90432791673164</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -6687,7 +6687,7 @@
         <v>18.73651082015842</v>
       </c>
       <c r="F139" t="n">
-        <v>19.43473783780677</v>
+        <v>19.43922916897487</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -6726,16 +6726,16 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.01051555871461571</v>
+        <v>0.01051555871461615</v>
       </c>
       <c r="E140" t="n">
-        <v>13.77380601271575</v>
+        <v>13.89633446407663</v>
       </c>
       <c r="F140" t="n">
-        <v>14.37981275554606</v>
+        <v>14.3798127555421</v>
       </c>
       <c r="G140" t="n">
-        <v>-36.17491262652285</v>
+        <v>-36.17380616808301</v>
       </c>
       <c r="H140" t="n">
         <v>0.8544</v>
@@ -6747,13 +6747,13 @@
         <v>35.04</v>
       </c>
       <c r="K140" t="n">
-        <v>3.25254552688646</v>
+        <v>3.345126323945916</v>
       </c>
       <c r="L140" t="n">
         <v>1.988800574553562</v>
       </c>
       <c r="M140" t="n">
-        <v>2.763778524011122</v>
+        <v>2.838394270408845</v>
       </c>
     </row>
     <row r="141">
@@ -6816,7 +6816,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.3617770246845114</v>
+        <v>0.3607163928268558</v>
       </c>
       <c r="E142" t="n">
         <v>16.70494082987966</v>
@@ -6951,16 +6951,16 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.09513474265999335</v>
+        <v>0.09513474265999347</v>
       </c>
       <c r="E145" t="n">
-        <v>9.605556727809432</v>
+        <v>9.462649593294746</v>
       </c>
       <c r="F145" t="n">
-        <v>16.22096940973244</v>
+        <v>16.41567807672173</v>
       </c>
       <c r="G145" t="n">
-        <v>-26.27821263064075</v>
+        <v>-26.27827681633</v>
       </c>
       <c r="H145" t="n">
         <v>0.7625</v>
@@ -6972,13 +6972,13 @@
         <v>36.25</v>
       </c>
       <c r="K145" t="n">
-        <v>3.34672499617163</v>
+        <v>3.239139996937304</v>
       </c>
       <c r="L145" t="n">
-        <v>2.462324317040219</v>
+        <v>2.547130960784921</v>
       </c>
       <c r="M145" t="n">
-        <v>3.03398591870115</v>
+        <v>3.156014560596656</v>
       </c>
     </row>
     <row r="146">
@@ -6996,16 +6996,16 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.01667210058591273</v>
+        <v>0.01667210058591162</v>
       </c>
       <c r="E146" t="n">
-        <v>11.82882777326081</v>
+        <v>12.00222630423101</v>
       </c>
       <c r="F146" t="n">
-        <v>12.63247841698307</v>
+        <v>13.53479039582284</v>
       </c>
       <c r="G146" t="n">
-        <v>-24.00046051990288</v>
+        <v>-24.00093466606253</v>
       </c>
       <c r="H146" t="n">
         <v>0.77</v>
@@ -7017,13 +7017,13 @@
         <v>33</v>
       </c>
       <c r="K146" t="n">
-        <v>3.050914069386721</v>
+        <v>3.167275567480316</v>
       </c>
       <c r="L146" t="n">
-        <v>1.955417605324542</v>
+        <v>2.228473661462667</v>
       </c>
       <c r="M146" t="n">
-        <v>2.966638542938871</v>
+        <v>2.99977290264573</v>
       </c>
     </row>
     <row r="147">
@@ -7041,16 +7041,16 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.1880231951636492</v>
+        <v>0.1880231951636488</v>
       </c>
       <c r="E147" t="n">
-        <v>8.536361379603454</v>
+        <v>6.257186991869921</v>
       </c>
       <c r="F147" t="n">
-        <v>13.02803257271935</v>
+        <v>13.02803257271988</v>
       </c>
       <c r="G147" t="n">
-        <v>-26.6538685677986</v>
+        <v>-26.65448894504558</v>
       </c>
       <c r="H147" t="n">
         <v>0.675</v>
@@ -7062,13 +7062,13 @@
         <v>35.5</v>
       </c>
       <c r="K147" t="n">
-        <v>5.990771606766899</v>
+        <v>3.075000000000001</v>
       </c>
       <c r="L147" t="n">
         <v>2.016157306694126</v>
       </c>
       <c r="M147" t="n">
-        <v>2.608435573546804</v>
+        <v>2.841717786773402</v>
       </c>
     </row>
     <row r="148">
@@ -7311,16 +7311,16 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.1983674676989799</v>
+        <v>0.1983674676989805</v>
       </c>
       <c r="E153" t="n">
-        <v>14.35345042280528</v>
+        <v>12.85752776889162</v>
       </c>
       <c r="F153" t="n">
-        <v>11.49224901696388</v>
+        <v>11.49224901695042</v>
       </c>
       <c r="G153" t="n">
-        <v>-28.88407836199895</v>
+        <v>-28.88409967947791</v>
       </c>
       <c r="H153" t="n">
         <v>0.9877551020408163</v>
@@ -7332,13 +7332,13 @@
         <v>53.87755102040816</v>
       </c>
       <c r="K153" t="n">
-        <v>6.559728117079243</v>
+        <v>3.901199999999999</v>
       </c>
       <c r="L153" t="n">
         <v>1.9506</v>
       </c>
       <c r="M153" t="n">
-        <v>2.90335499158832</v>
+        <v>2.830959983176639</v>
       </c>
     </row>
     <row r="154">
@@ -7536,16 +7536,16 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.01893024854479637</v>
+        <v>0.01893024854479462</v>
       </c>
       <c r="E158" t="n">
-        <v>19.93375077701554</v>
+        <v>20.01779616240593</v>
       </c>
       <c r="F158" t="n">
-        <v>14.07497622061901</v>
+        <v>14.07497622060781</v>
       </c>
       <c r="G158" t="n">
-        <v>-35.71697828426706</v>
+        <v>-35.71605500556416</v>
       </c>
       <c r="H158" t="n">
         <v>0.7727999999999999</v>
@@ -7557,13 +7557,13 @@
         <v>31.68</v>
       </c>
       <c r="K158" t="n">
-        <v>3.329207002334104</v>
+        <v>3.39517989500089</v>
       </c>
       <c r="L158" t="n">
         <v>2.030912641720244</v>
       </c>
       <c r="M158" t="n">
-        <v>2.805035512860458</v>
+        <v>2.881847344588374</v>
       </c>
     </row>
     <row r="159">
@@ -7626,7 +7626,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.1518851742771202</v>
+        <v>0.1518853077504102</v>
       </c>
       <c r="E160" t="n">
         <v>10.70017782586434</v>
@@ -7671,16 +7671,16 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.2018753167456309</v>
+        <v>0.2018753167456303</v>
       </c>
       <c r="E161" t="n">
-        <v>14.34872965287014</v>
+        <v>12.84880270298047</v>
       </c>
       <c r="F161" t="n">
-        <v>11.54674904400169</v>
+        <v>11.54674904398812</v>
       </c>
       <c r="G161" t="n">
-        <v>-28.97178172601171</v>
+        <v>-28.97181862601716</v>
       </c>
       <c r="H161" t="n">
         <v>0.982857142857143</v>
@@ -7692,13 +7692,13 @@
         <v>53.22448979591837</v>
       </c>
       <c r="K161" t="n">
-        <v>6.545651457265349</v>
+        <v>3.891999999999999</v>
       </c>
       <c r="L161" t="n">
         <v>1.946</v>
       </c>
       <c r="M161" t="n">
-        <v>2.897019864126014</v>
+        <v>2.824539728252029</v>
       </c>
     </row>
     <row r="162">
@@ -7761,16 +7761,16 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.1569437941463841</v>
+        <v>0.1569437941463858</v>
       </c>
       <c r="E163" t="n">
-        <v>53.14946729439676</v>
+        <v>52.19943278792383</v>
       </c>
       <c r="F163" t="n">
-        <v>10.89186055047605</v>
+        <v>10.96476421761408</v>
       </c>
       <c r="G163" t="n">
-        <v>-37.13734016809246</v>
+        <v>-37.13615641692449</v>
       </c>
       <c r="H163" t="n">
         <v>0.996875</v>
@@ -7782,13 +7782,13 @@
         <v>55.3125</v>
       </c>
       <c r="K163" t="n">
-        <v>4.995780014780038</v>
+        <v>3.757347999999999</v>
       </c>
       <c r="L163" t="n">
-        <v>1.879540162800695</v>
+        <v>1.89759747649293</v>
       </c>
       <c r="M163" t="n">
-        <v>2.986092672879209</v>
+        <v>2.977270843696624</v>
       </c>
     </row>
     <row r="164">
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.1903637260420388</v>
+        <v>0.190430177650339</v>
       </c>
       <c r="E172" t="n">
         <v>12.75925807445237</v>
@@ -8211,16 +8211,16 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.2833636641444964</v>
+        <v>0.2833636641444967</v>
       </c>
       <c r="E173" t="n">
-        <v>26.96155853957426</v>
+        <v>27.03858403816331</v>
       </c>
       <c r="F173" t="n">
-        <v>16.51316941368032</v>
+        <v>16.5517380004414</v>
       </c>
       <c r="G173" t="n">
-        <v>-29.40777943753368</v>
+        <v>-29.40822457256444</v>
       </c>
       <c r="H173" t="n">
         <v>1.1232</v>
@@ -8232,10 +8232,10 @@
         <v>67.67999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>3.778303731184887</v>
+        <v>3.856240713241606</v>
       </c>
       <c r="L173" t="n">
-        <v>2.5163725595866</v>
+        <v>2.5334478737542</v>
       </c>
       <c r="M173" t="n">
         <v>3.05937125175575</v>
@@ -8301,16 +8301,16 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.1429696919666848</v>
+        <v>0.1429696919666868</v>
       </c>
       <c r="E175" t="n">
-        <v>53.61273039790926</v>
+        <v>52.38041428128756</v>
       </c>
       <c r="F175" t="n">
-        <v>9.137886356419695</v>
+        <v>9.24181704546988</v>
       </c>
       <c r="G175" t="n">
-        <v>-36.15701812584948</v>
+        <v>-36.15536149721026</v>
       </c>
       <c r="H175" t="n">
         <v>1.028125</v>
@@ -8322,13 +8322,13 @@
         <v>58.75</v>
       </c>
       <c r="K175" t="n">
-        <v>5.952483307241612</v>
+        <v>3.943579999999999</v>
       </c>
       <c r="L175" t="n">
-        <v>1.897853036638009</v>
+        <v>1.924210710330452</v>
       </c>
       <c r="M175" t="n">
-        <v>3.00245814369887</v>
+        <v>2.976373685595244</v>
       </c>
     </row>
     <row r="176">
@@ -8436,16 +8436,16 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.04280732356022691</v>
+        <v>0.04280732356022595</v>
       </c>
       <c r="E178" t="n">
-        <v>20.59470267846056</v>
+        <v>20.59550646675362</v>
       </c>
       <c r="F178" t="n">
-        <v>13.30902822792875</v>
+        <v>13.30902822792275</v>
       </c>
       <c r="G178" t="n">
-        <v>-32.76413326174272</v>
+        <v>-32.76428573073986</v>
       </c>
       <c r="H178" t="n">
         <v>0.9480000000000001</v>
@@ -8457,13 +8457,13 @@
         <v>49.68</v>
       </c>
       <c r="K178" t="n">
-        <v>3.929716596782723</v>
+        <v>3.930578795710296</v>
       </c>
       <c r="L178" t="n">
         <v>2.006580412946843</v>
       </c>
       <c r="M178" t="n">
-        <v>2.950495025947123</v>
+        <v>2.950094173733325</v>
       </c>
     </row>
     <row r="179">
@@ -8706,16 +8706,16 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.0701264156321164</v>
+        <v>0.07012641563211548</v>
       </c>
       <c r="E184" t="n">
-        <v>14.60826598591838</v>
+        <v>12.45500215570507</v>
       </c>
       <c r="F184" t="n">
-        <v>12.69292262306411</v>
+        <v>12.69292262306219</v>
       </c>
       <c r="G184" t="n">
-        <v>-26.522422986089</v>
+        <v>-26.52181586152219</v>
       </c>
       <c r="H184" t="n">
         <v>1.0675</v>
@@ -8727,13 +8727,13 @@
         <v>37.25</v>
       </c>
       <c r="K184" t="n">
-        <v>5.161841993362877</v>
+        <v>2.9132</v>
       </c>
       <c r="L184" t="n">
         <v>2.020985832773382</v>
       </c>
       <c r="M184" t="n">
-        <v>2.96574530622172</v>
+        <v>2.948230204147813</v>
       </c>
     </row>
     <row r="185">
@@ -8796,16 +8796,16 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.07453063930652766</v>
+        <v>0.0745306393065263</v>
       </c>
       <c r="E186" t="n">
-        <v>20.46390920722326</v>
+        <v>20.46783378065646</v>
       </c>
       <c r="F186" t="n">
-        <v>13.76654796128022</v>
+        <v>13.76654796127197</v>
       </c>
       <c r="G186" t="n">
-        <v>-33.97218843175192</v>
+        <v>-33.97153807935172</v>
       </c>
       <c r="H186" t="n">
         <v>0.9071999999999999</v>
@@ -8817,13 +8817,13 @@
         <v>44.88</v>
       </c>
       <c r="K186" t="n">
-        <v>3.794283400915496</v>
+        <v>3.798211201220662</v>
       </c>
       <c r="L186" t="n">
         <v>2.009800721609743</v>
       </c>
       <c r="M186" t="n">
-        <v>2.868981540615875</v>
+        <v>2.933741018345286</v>
       </c>
     </row>
     <row r="187">
@@ -9021,16 +9021,16 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.2212388328304922</v>
+        <v>0.2212388328304926</v>
       </c>
       <c r="E191" t="n">
-        <v>16.99669511730325</v>
+        <v>16.91995780658202</v>
       </c>
       <c r="F191" t="n">
-        <v>6.834580731998358</v>
+        <v>6.822053995537641</v>
       </c>
       <c r="G191" t="n">
-        <v>-48.92012693632001</v>
+        <v>-48.92156129960981</v>
       </c>
       <c r="H191" t="n">
         <v>0.8399999999999999</v>
@@ -9042,13 +9042,13 @@
         <v>32.44444444444444</v>
       </c>
       <c r="K191" t="n">
-        <v>3.425792418550779</v>
+        <v>3.364371038711804</v>
       </c>
       <c r="L191" t="n">
-        <v>1.888779196404993</v>
+        <v>1.885680811440221</v>
       </c>
       <c r="M191" t="n">
-        <v>2.588775270546966</v>
+        <v>2.753002495253265</v>
       </c>
     </row>
     <row r="192">
@@ -9066,16 +9066,16 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.06868220417723563</v>
+        <v>0.06868220417723681</v>
       </c>
       <c r="E192" t="n">
-        <v>52.622655221196</v>
+        <v>52.84829615798657</v>
       </c>
       <c r="F192" t="n">
-        <v>9.414516820353818</v>
+        <v>9.639019033866528</v>
       </c>
       <c r="G192" t="n">
-        <v>-65.71777086401083</v>
+        <v>-65.7172699890917</v>
       </c>
       <c r="H192" t="n">
         <v>0.4799999999999999</v>
@@ -9087,13 +9087,13 @@
         <v>33</v>
       </c>
       <c r="K192" t="n">
-        <v>3.43806164080349</v>
+        <v>3.633830820401744</v>
       </c>
       <c r="L192" t="n">
-        <v>1.921359420825525</v>
+        <v>1.980692144408202</v>
       </c>
       <c r="M192" t="n">
-        <v>2.928529153368812</v>
+        <v>2.885498944381782</v>
       </c>
     </row>
     <row r="193">
@@ -9114,13 +9114,13 @@
         <v>0.1754425245557238</v>
       </c>
       <c r="E193" t="n">
-        <v>11.83814873543771</v>
+        <v>9.538784586228683</v>
       </c>
       <c r="F193" t="n">
-        <v>4.926845434851829</v>
+        <v>4.926845434865771</v>
       </c>
       <c r="G193" t="n">
-        <v>-30.99260460251516</v>
+        <v>-30.99216706806284</v>
       </c>
       <c r="H193" t="n">
         <v>0.1866666666666667</v>
@@ -9132,13 +9132,13 @@
         <v>21.77777777777778</v>
       </c>
       <c r="K193" t="n">
-        <v>6.403113548197557</v>
+        <v>3.166</v>
       </c>
       <c r="L193" t="n">
-        <v>2.414028927329594</v>
+        <v>2.414028927329595</v>
       </c>
       <c r="M193" t="n">
-        <v>3.326078858095556</v>
+        <v>3.30674387836762</v>
       </c>
     </row>
     <row r="194">
@@ -9156,16 +9156,16 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.1197903019580587</v>
+        <v>0.1197903019580571</v>
       </c>
       <c r="E194" t="n">
-        <v>14.395634061615</v>
+        <v>12.89723131746974</v>
       </c>
       <c r="F194" t="n">
-        <v>11.07205134859958</v>
+        <v>11.0720513485837</v>
       </c>
       <c r="G194" t="n">
-        <v>-28.46253561090176</v>
+        <v>-28.46318725012227</v>
       </c>
       <c r="H194" t="n">
         <v>1.002448979591837</v>
@@ -9177,13 +9177,13 @@
         <v>54.85714285714285</v>
       </c>
       <c r="K194" t="n">
-        <v>6.688254031673736</v>
+        <v>3.94362</v>
       </c>
       <c r="L194" t="n">
         <v>1.97181</v>
       </c>
       <c r="M194" t="n">
-        <v>2.955920148140964</v>
+        <v>2.872240296281928</v>
       </c>
     </row>
     <row r="195">
@@ -9201,16 +9201,16 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.2528606710318881</v>
+        <v>0.2528606710318886</v>
       </c>
       <c r="E195" t="n">
-        <v>14.6143216297791</v>
+        <v>14.67755256537336</v>
       </c>
       <c r="F195" t="n">
-        <v>14.87158680620565</v>
+        <v>14.91194836752084</v>
       </c>
       <c r="G195" t="n">
-        <v>-30.22395862538762</v>
+        <v>-30.22444295081177</v>
       </c>
       <c r="H195" t="n">
         <v>1.104</v>
@@ -9222,10 +9222,10 @@
         <v>64.8</v>
       </c>
       <c r="K195" t="n">
-        <v>3.696313871820857</v>
+        <v>3.75729876159484</v>
       </c>
       <c r="L195" t="n">
-        <v>2.450317261598927</v>
+        <v>2.467262736341478</v>
       </c>
       <c r="M195" t="n">
         <v>2.981140920524745</v>
@@ -9246,16 +9246,16 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.1360632449187252</v>
+        <v>0.1360632449187243</v>
       </c>
       <c r="E196" t="n">
-        <v>53.56099059832079</v>
+        <v>52.28669424333155</v>
       </c>
       <c r="F196" t="n">
-        <v>10.19685377698347</v>
+        <v>10.295513824433</v>
       </c>
       <c r="G196" t="n">
-        <v>-36.76275088713864</v>
+        <v>-36.76156217852071</v>
       </c>
       <c r="H196" t="n">
         <v>1.015625</v>
@@ -9267,13 +9267,13 @@
         <v>56.875</v>
       </c>
       <c r="K196" t="n">
-        <v>5.827837288904249</v>
+        <v>3.844894</v>
       </c>
       <c r="L196" t="n">
-        <v>1.876128950056128</v>
+        <v>1.900559516863074</v>
       </c>
       <c r="M196" t="n">
-        <v>2.968728031281603</v>
+        <v>2.94530462309298</v>
       </c>
     </row>
     <row r="197">
@@ -9339,13 +9339,13 @@
         <v>0.09878369259659024</v>
       </c>
       <c r="E198" t="n">
-        <v>13.83121607343389</v>
+        <v>13.86486594047179</v>
       </c>
       <c r="F198" t="n">
-        <v>10.75817421596991</v>
+        <v>10.7581742159645</v>
       </c>
       <c r="G198" t="n">
-        <v>-33.1405784058641</v>
+        <v>-33.14001562076545</v>
       </c>
       <c r="H198" t="n">
         <v>1.0056</v>
@@ -9357,13 +9357,13 @@
         <v>49.92</v>
       </c>
       <c r="K198" t="n">
-        <v>3.880487326925866</v>
+        <v>3.915998102567822</v>
       </c>
       <c r="L198" t="n">
         <v>2.028556389577798</v>
       </c>
       <c r="M198" t="n">
-        <v>2.929168752647533</v>
+        <v>2.945364050849319</v>
       </c>
     </row>
     <row r="199">
@@ -9471,16 +9471,16 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.3695041641226377</v>
+        <v>0.369504164122639</v>
       </c>
       <c r="E201" t="n">
-        <v>18.28856630310757</v>
+        <v>16.0612420686566</v>
       </c>
       <c r="F201" t="n">
-        <v>-1.862887256628939</v>
+        <v>-1.86288725665169</v>
       </c>
       <c r="G201" t="n">
-        <v>-45.50853033637408</v>
+        <v>-45.50797791661051</v>
       </c>
       <c r="H201" t="n">
         <v>0.68</v>
@@ -9492,13 +9492,13 @@
         <v>25.77777777777778</v>
       </c>
       <c r="K201" t="n">
-        <v>5.049968377554457</v>
+        <v>2.83527</v>
       </c>
       <c r="L201" t="n">
         <v>1.920911144278404</v>
       </c>
       <c r="M201" t="n">
-        <v>2.903707353717471</v>
+        <v>2.880894902478314</v>
       </c>
     </row>
     <row r="202">
@@ -9609,10 +9609,10 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>17.81550329210809</v>
+        <v>17.81570895001019</v>
       </c>
       <c r="F204" t="n">
-        <v>14.19784305305695</v>
+        <v>14.19784298968019</v>
       </c>
       <c r="G204" t="n">
         <v>0</v>
@@ -9651,16 +9651,16 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0.03575906373700577</v>
+        <v>0.03575906373700554</v>
       </c>
       <c r="E205" t="n">
-        <v>12.98191508403472</v>
+        <v>13.12651275860204</v>
       </c>
       <c r="F205" t="n">
-        <v>8.692741461596764</v>
+        <v>8.692741461606781</v>
       </c>
       <c r="G205" t="n">
-        <v>-18.83336910621263</v>
+        <v>-18.83356095343704</v>
       </c>
       <c r="H205" t="n">
         <v>0.5549999999999999</v>
@@ -9672,13 +9672,13 @@
         <v>40</v>
       </c>
       <c r="K205" t="n">
-        <v>3.670677737885929</v>
+        <v>3.811157084900477</v>
       </c>
       <c r="L205" t="n">
-        <v>2.311482356379309</v>
+        <v>2.311482356379308</v>
       </c>
       <c r="M205" t="n">
-        <v>2.810325191147814</v>
+        <v>2.810325191147815</v>
       </c>
     </row>
     <row r="206">
@@ -9741,16 +9741,16 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0.2717190107620959</v>
+        <v>0.2717190107620979</v>
       </c>
       <c r="E207" t="n">
-        <v>9.273797311125403</v>
+        <v>9.175501603292108</v>
       </c>
       <c r="F207" t="n">
-        <v>11.83859620530502</v>
+        <v>11.83859620530317</v>
       </c>
       <c r="G207" t="n">
-        <v>-23.07103433568884</v>
+        <v>-23.06992549725538</v>
       </c>
       <c r="H207" t="n">
         <v>0.6199999999999999</v>
@@ -9762,13 +9762,13 @@
         <v>36.5</v>
       </c>
       <c r="K207" t="n">
-        <v>3.407231280673503</v>
+        <v>3.329785024538802</v>
       </c>
       <c r="L207" t="n">
-        <v>2.010561177880444</v>
+        <v>2.010561177880445</v>
       </c>
       <c r="M207" t="n">
-        <v>2.654999999999999</v>
+        <v>2.8375</v>
       </c>
     </row>
     <row r="208">
@@ -9786,16 +9786,16 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.2314379373673458</v>
+        <v>0.2314379373673452</v>
       </c>
       <c r="E208" t="n">
-        <v>14.40905513841236</v>
+        <v>12.91316098588705</v>
       </c>
       <c r="F208" t="n">
-        <v>10.98011173316974</v>
+        <v>10.98011173315691</v>
       </c>
       <c r="G208" t="n">
-        <v>-28.26537377537913</v>
+        <v>-28.26566127226256</v>
       </c>
       <c r="H208" t="n">
         <v>1.005714285714286</v>
@@ -9807,13 +9807,13 @@
         <v>55.51020408163265</v>
       </c>
       <c r="K208" t="n">
-        <v>6.730208352458339</v>
+        <v>3.9609</v>
       </c>
       <c r="L208" t="n">
         <v>1.98045</v>
       </c>
       <c r="M208" t="n">
-        <v>2.973509749867265</v>
+        <v>2.88714449973453</v>
       </c>
     </row>
     <row r="209">
@@ -9831,16 +9831,16 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0.3483969246383166</v>
+        <v>0.3483969246383162</v>
       </c>
       <c r="E209" t="n">
-        <v>13.47223138270753</v>
+        <v>13.54894894796809</v>
       </c>
       <c r="F209" t="n">
-        <v>15.29746612400971</v>
+        <v>15.31059443049966</v>
       </c>
       <c r="G209" t="n">
-        <v>-30.04762368050637</v>
+        <v>-30.04787406486476</v>
       </c>
       <c r="H209" t="n">
         <v>1.1088</v>
@@ -9852,13 +9852,13 @@
         <v>65.75999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>3.706408153489758</v>
+        <v>3.78107212367337</v>
       </c>
       <c r="L209" t="n">
-        <v>2.480234557092896</v>
+        <v>2.48585571054801</v>
       </c>
       <c r="M209" t="n">
-        <v>2.997707483154816</v>
+        <v>3.284771655436544</v>
       </c>
     </row>
     <row r="210">
@@ -9876,16 +9876,16 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0.1858737323763237</v>
+        <v>0.1858737323763252</v>
       </c>
       <c r="E210" t="n">
-        <v>53.57339404434861</v>
+        <v>52.31233479942781</v>
       </c>
       <c r="F210" t="n">
-        <v>9.641592449724619</v>
+        <v>9.729341619484252</v>
       </c>
       <c r="G210" t="n">
-        <v>-36.49704697563923</v>
+        <v>-36.49443491282531</v>
       </c>
       <c r="H210" t="n">
         <v>1.01875</v>
@@ -9897,13 +9897,13 @@
         <v>57.5</v>
       </c>
       <c r="K210" t="n">
-        <v>5.857240237191619</v>
+        <v>3.871398999999999</v>
       </c>
       <c r="L210" t="n">
-        <v>1.898319284534826</v>
+        <v>1.920536152100084</v>
       </c>
       <c r="M210" t="n">
-        <v>2.982103319224128</v>
+        <v>2.956333188473552</v>
       </c>
     </row>
     <row r="211">
@@ -9921,16 +9921,16 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0.1215071498209805</v>
+        <v>0.1215071498209807</v>
       </c>
       <c r="E211" t="n">
-        <v>13.83870344381146</v>
+        <v>13.8687859969182</v>
       </c>
       <c r="F211" t="n">
-        <v>10.82576286667492</v>
+        <v>10.82576286667376</v>
       </c>
       <c r="G211" t="n">
-        <v>-33.085220975277</v>
+        <v>-33.08486840765489</v>
       </c>
       <c r="H211" t="n">
         <v>1.008</v>
@@ -9942,13 +9942,13 @@
         <v>50.4</v>
       </c>
       <c r="K211" t="n">
-        <v>3.888332943775969</v>
+        <v>3.920177258367959</v>
       </c>
       <c r="L211" t="n">
         <v>2.023905036488309</v>
       </c>
       <c r="M211" t="n">
-        <v>2.931425218512636</v>
+        <v>2.946448863135835</v>
       </c>
     </row>
     <row r="212">
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0.2111508679789774</v>
+        <v>0.2106474396915623</v>
       </c>
       <c r="E212" t="n">
         <v>14.77226032577416</v>
@@ -10056,16 +10056,16 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.329996674374284</v>
+        <v>0.3299966743742844</v>
       </c>
       <c r="E214" t="n">
-        <v>8.948894020851483</v>
+        <v>8.89519510069557</v>
       </c>
       <c r="F214" t="n">
-        <v>11.32147282158181</v>
+        <v>11.33006588072785</v>
       </c>
       <c r="G214" t="n">
-        <v>-46.16414412973549</v>
+        <v>-46.16696698626063</v>
       </c>
       <c r="H214" t="n">
         <v>0.5155555555555557</v>
@@ -10077,13 +10077,13 @@
         <v>31.11111111111111</v>
       </c>
       <c r="K214" t="n">
-        <v>3.554498468841983</v>
+        <v>3.507998638970652</v>
       </c>
       <c r="L214" t="n">
-        <v>1.996249006004464</v>
+        <v>1.998629915911764</v>
       </c>
       <c r="M214" t="n">
-        <v>2.712987151949126</v>
+        <v>2.814947707456942</v>
       </c>
     </row>
     <row r="215">
@@ -10236,16 +10236,16 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0.202101300431106</v>
+        <v>0.2021013004311041</v>
       </c>
       <c r="E218" t="n">
-        <v>14.36528663767879</v>
+        <v>12.87002169257495</v>
       </c>
       <c r="F218" t="n">
-        <v>11.38391685233449</v>
+        <v>11.38391685231962</v>
       </c>
       <c r="G218" t="n">
-        <v>-28.746290200148</v>
+        <v>-28.74656945636074</v>
       </c>
       <c r="H218" t="n">
         <v>0.9926530612244898</v>
@@ -10257,13 +10257,13 @@
         <v>53.87755102040816</v>
       </c>
       <c r="K218" t="n">
-        <v>6.595289661853374</v>
+        <v>3.91445</v>
       </c>
       <c r="L218" t="n">
         <v>1.957225</v>
       </c>
       <c r="M218" t="n">
-        <v>2.918094713205227</v>
+        <v>2.843014426410454</v>
       </c>
     </row>
     <row r="219">
@@ -10326,16 +10326,16 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.1591643291114837</v>
+        <v>0.1591643291114834</v>
       </c>
       <c r="E220" t="n">
-        <v>53.44983305155807</v>
+        <v>52.23937253844829</v>
       </c>
       <c r="F220" t="n">
-        <v>10.42221195393947</v>
+        <v>10.49071699622068</v>
       </c>
       <c r="G220" t="n">
-        <v>-36.92207801414336</v>
+        <v>-36.92071788674254</v>
       </c>
       <c r="H220" t="n">
         <v>1.00625</v>
@@ -10347,13 +10347,13 @@
         <v>55.9375</v>
       </c>
       <c r="K220" t="n">
-        <v>5.57694307450255</v>
+        <v>3.796917999999999</v>
       </c>
       <c r="L220" t="n">
-        <v>1.888785265060138</v>
+        <v>1.905911262109774</v>
       </c>
       <c r="M220" t="n">
-        <v>3.000963843461907</v>
+        <v>2.993658490508021</v>
       </c>
     </row>
     <row r="221">
@@ -10554,13 +10554,13 @@
         <v>0.09025072884001939</v>
       </c>
       <c r="E225" t="n">
-        <v>11.79603934229487</v>
+        <v>11.93131135059518</v>
       </c>
       <c r="F225" t="n">
-        <v>10.25203530105554</v>
+        <v>10.25203530105962</v>
       </c>
       <c r="G225" t="n">
-        <v>-19.54365258742803</v>
+        <v>-19.54371969453442</v>
       </c>
       <c r="H225" t="n">
         <v>0.74</v>
@@ -10572,7 +10572,7 @@
         <v>36.5</v>
       </c>
       <c r="K225" t="n">
-        <v>3.532017708835373</v>
+        <v>3.653232664244247</v>
       </c>
       <c r="L225" t="n">
         <v>2.218661199661109</v>
@@ -10641,16 +10641,16 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0.3615538811674336</v>
+        <v>0.3615445092861538</v>
       </c>
       <c r="E227" t="n">
-        <v>15.83067495190395</v>
+        <v>14.14712688243392</v>
       </c>
       <c r="F227" t="n">
-        <v>14.90335040175579</v>
+        <v>14.73029750138499</v>
       </c>
       <c r="G227" t="n">
-        <v>-28.04902877307954</v>
+        <v>-28.04920443941486</v>
       </c>
       <c r="H227" t="n">
         <v>1.022057142857143</v>
@@ -10662,13 +10662,13 @@
         <v>54.85583673469387</v>
       </c>
       <c r="K227" t="n">
-        <v>6.911665274832795</v>
+        <v>3.822647</v>
       </c>
       <c r="L227" t="n">
-        <v>2.0607285454</v>
+        <v>2.0109268636</v>
       </c>
       <c r="M227" t="n">
-        <v>2.95309122552611</v>
+        <v>2.968657029151241</v>
       </c>
     </row>
     <row r="228">
@@ -10686,7 +10686,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0.1390074677479084</v>
+        <v>0.1390381997285605</v>
       </c>
       <c r="E228" t="n">
         <v>14.44527231426382</v>
@@ -10731,7 +10731,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.1877062405315846</v>
+        <v>0.1877852888674294</v>
       </c>
       <c r="E229" t="n">
         <v>16.39782938680274</v>
@@ -10776,7 +10776,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0.1518438410308268</v>
+        <v>0.1519435187628686</v>
       </c>
       <c r="E230" t="n">
         <v>16.00069976423015</v>
@@ -10821,16 +10821,16 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0.3223260483150401</v>
+        <v>0.3223260483150377</v>
       </c>
       <c r="E231" t="n">
-        <v>18.21694487869566</v>
+        <v>16.54588732174049</v>
       </c>
       <c r="F231" t="n">
-        <v>6.1983982871848</v>
+        <v>6.10957228012406</v>
       </c>
       <c r="G231" t="n">
-        <v>-31.57004477497023</v>
+        <v>-31.57012097320587</v>
       </c>
       <c r="H231" t="n">
         <v>1.103673469387755</v>
@@ -10842,13 +10842,13 @@
         <v>54.04081632653061</v>
       </c>
       <c r="K231" t="n">
-        <v>6.912755141584287</v>
+        <v>3.8357</v>
       </c>
       <c r="L231" t="n">
-        <v>1.99026559</v>
+        <v>1.96612706</v>
       </c>
       <c r="M231" t="n">
-        <v>2.915266537166365</v>
+        <v>2.964638264626399</v>
       </c>
     </row>
     <row r="232">
@@ -10956,16 +10956,16 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0.7679003601645413</v>
+        <v>0.7678998407338449</v>
       </c>
       <c r="E234" t="n">
-        <v>10.34383861544953</v>
+        <v>10.34010954124143</v>
       </c>
       <c r="F234" t="n">
-        <v>11.48080112895222</v>
+        <v>11.48080112895189</v>
       </c>
       <c r="G234" t="n">
-        <v>-36.21672126525694</v>
+        <v>-36.21561052058788</v>
       </c>
       <c r="H234" t="n">
         <v>0.9395999999999999</v>
@@ -10977,13 +10977,13 @@
         <v>48.23999999999999</v>
       </c>
       <c r="K234" t="n">
-        <v>3.938461267286331</v>
+        <v>3.934448356381774</v>
       </c>
       <c r="L234" t="n">
         <v>1.971261833673564</v>
       </c>
       <c r="M234" t="n">
-        <v>2.855894638812428</v>
+        <v>2.851710443207809</v>
       </c>
     </row>
     <row r="235">
@@ -11046,16 +11046,16 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.1868715386661369</v>
+        <v>0.1869266377154532</v>
       </c>
       <c r="E236" t="n">
-        <v>20.6051521583596</v>
+        <v>18.96987331710972</v>
       </c>
       <c r="F236" t="n">
-        <v>14.3054639897824</v>
+        <v>14.18060474185032</v>
       </c>
       <c r="G236" t="n">
-        <v>-27.39900416284927</v>
+        <v>-27.3993707496304</v>
       </c>
       <c r="H236" t="n">
         <v>1.054361990043102</v>
@@ -11067,13 +11067,13 @@
         <v>55.0101907848575</v>
       </c>
       <c r="K236" t="n">
-        <v>6.907314588716804</v>
+        <v>3.8709</v>
       </c>
       <c r="L236" t="n">
-        <v>2.04203439</v>
+        <v>2.00650626</v>
       </c>
       <c r="M236" t="n">
-        <v>2.953473413195097</v>
+        <v>2.984308207121122</v>
       </c>
     </row>
     <row r="237">
@@ -11091,16 +11091,16 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0.2518950759188653</v>
+        <v>0.2518950759188641</v>
       </c>
       <c r="E237" t="n">
-        <v>19.0862795792284</v>
+        <v>17.41281100415549</v>
       </c>
       <c r="F237" t="n">
-        <v>4.965246812817715</v>
+        <v>4.931576952181768</v>
       </c>
       <c r="G237" t="n">
-        <v>-32.19402790018171</v>
+        <v>-32.19408708713912</v>
       </c>
       <c r="H237" t="n">
         <v>1.121632653061224</v>
@@ -11112,13 +11112,13 @@
         <v>54.04081632653061</v>
       </c>
       <c r="K237" t="n">
-        <v>6.812466709643431</v>
+        <v>3.8022</v>
       </c>
       <c r="L237" t="n">
-        <v>1.927032</v>
+        <v>1.918388</v>
       </c>
       <c r="M237" t="n">
-        <v>2.860612382624822</v>
+        <v>2.928177806650953</v>
       </c>
     </row>
     <row r="238">
@@ -11136,7 +11136,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0.2511317435753148</v>
+        <v>0.2514050931078016</v>
       </c>
       <c r="E238" t="n">
         <v>20.63714316425158</v>
@@ -11181,16 +11181,16 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0.2728234640350437</v>
+        <v>0.2728234640350417</v>
       </c>
       <c r="E239" t="n">
-        <v>34.21912388746108</v>
+        <v>32.738853617695</v>
       </c>
       <c r="F239" t="n">
-        <v>11.61134175797678</v>
+        <v>11.58947915152666</v>
       </c>
       <c r="G239" t="n">
-        <v>-30.52593235399195</v>
+        <v>-30.52576339217887</v>
       </c>
       <c r="H239" t="n">
         <v>1.05469387755102</v>
@@ -11202,13 +11202,13 @@
         <v>54.04081632653061</v>
       </c>
       <c r="K239" t="n">
-        <v>6.953409676615494</v>
+        <v>4.054929999999999</v>
       </c>
       <c r="L239" t="n">
-        <v>2.0464819016</v>
+        <v>2.0401429344</v>
       </c>
       <c r="M239" t="n">
-        <v>3.01011958526536</v>
+        <v>3.068035671122031</v>
       </c>
     </row>
     <row r="240">
@@ -11226,16 +11226,16 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0.2141214412406977</v>
+        <v>0.2141214412406978</v>
       </c>
       <c r="E240" t="n">
-        <v>53.9364774853067</v>
+        <v>52.32684409987239</v>
       </c>
       <c r="F240" t="n">
-        <v>11.60656275966077</v>
+        <v>11.58338818576974</v>
       </c>
       <c r="G240" t="n">
-        <v>-31.62721229857544</v>
+        <v>-31.62713810114532</v>
       </c>
       <c r="H240" t="n">
         <v>1.123265306122449</v>
@@ -11247,13 +11247,13 @@
         <v>57.46938775510204</v>
       </c>
       <c r="K240" t="n">
-        <v>6.872184942163591</v>
+        <v>3.886559999999999</v>
       </c>
       <c r="L240" t="n">
-        <v>1.9618035</v>
+        <v>1.955629</v>
       </c>
       <c r="M240" t="n">
-        <v>2.909096684213039</v>
+        <v>2.976378632892453</v>
       </c>
     </row>
     <row r="241">
@@ -11271,16 +11271,16 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.2465046319184929</v>
+        <v>0.2465046319184941</v>
       </c>
       <c r="E241" t="n">
-        <v>16.46902516621481</v>
+        <v>14.81980923898879</v>
       </c>
       <c r="F241" t="n">
-        <v>8.857877404642604</v>
+        <v>8.815960501347067</v>
       </c>
       <c r="G241" t="n">
-        <v>-31.88280909045701</v>
+        <v>-31.88286014748677</v>
       </c>
       <c r="H241" t="n">
         <v>1.108571428571429</v>
@@ -11292,13 +11292,13 @@
         <v>56.32653061224489</v>
       </c>
       <c r="K241" t="n">
-        <v>6.845160681094345</v>
+        <v>3.837</v>
       </c>
       <c r="L241" t="n">
-        <v>1.95157255</v>
+        <v>1.940548366666667</v>
       </c>
       <c r="M241" t="n">
-        <v>2.886872304827751</v>
+        <v>2.950140132094834</v>
       </c>
     </row>
     <row r="242">
@@ -11451,7 +11451,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.1314342100335953</v>
+        <v>0.1321936028846503</v>
       </c>
       <c r="E245" t="n">
         <v>17.91290796027692</v>
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0.1339926854053659</v>
+        <v>0.1345100380260346</v>
       </c>
       <c r="E246" t="n">
         <v>18.06711847015571</v>
@@ -11586,16 +11586,16 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0.3414487332765429</v>
+        <v>0.341480355489455</v>
       </c>
       <c r="E248" t="n">
-        <v>15.65505341042126</v>
+        <v>13.98788406482284</v>
       </c>
       <c r="F248" t="n">
-        <v>12.45119699628211</v>
+        <v>12.35658879116878</v>
       </c>
       <c r="G248" t="n">
-        <v>-29.1876395137216</v>
+        <v>-29.18750312135191</v>
       </c>
       <c r="H248" t="n">
         <v>1.043265306122449</v>
@@ -11607,13 +11607,13 @@
         <v>53.87755102040816</v>
       </c>
       <c r="K248" t="n">
-        <v>6.80851709019666</v>
+        <v>3.8073</v>
       </c>
       <c r="L248" t="n">
-        <v>1.97992506</v>
+        <v>1.95450004</v>
       </c>
       <c r="M248" t="n">
-        <v>2.890082481863612</v>
+        <v>2.934066777486983</v>
       </c>
     </row>
     <row r="249">
@@ -11631,16 +11631,16 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0.1827856724043036</v>
+        <v>0.1823364055234666</v>
       </c>
       <c r="E249" t="n">
-        <v>16.08861623599942</v>
+        <v>14.45791447881466</v>
       </c>
       <c r="F249" t="n">
-        <v>14.57034923573437</v>
+        <v>14.50721533879581</v>
       </c>
       <c r="G249" t="n">
-        <v>-29.01020924432668</v>
+        <v>-29.01026574719509</v>
       </c>
       <c r="H249" t="n">
         <v>1.079183673469388</v>
@@ -11652,13 +11652,13 @@
         <v>56</v>
       </c>
       <c r="K249" t="n">
-        <v>6.81677744612511</v>
+        <v>3.847</v>
       </c>
       <c r="L249" t="n">
-        <v>1.974331</v>
+        <v>1.957387333333333</v>
       </c>
       <c r="M249" t="n">
-        <v>2.898513833872741</v>
+        <v>2.951245296669089</v>
       </c>
     </row>
     <row r="250">
@@ -11676,16 +11676,16 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0.1818645273810772</v>
+        <v>0.1814152283763478</v>
       </c>
       <c r="E250" t="n">
-        <v>15.31120520480402</v>
+        <v>13.68932629030597</v>
       </c>
       <c r="F250" t="n">
-        <v>15.37642576845103</v>
+        <v>15.26356819634066</v>
       </c>
       <c r="G250" t="n">
-        <v>-28.65403352836999</v>
+        <v>-28.65414836289552</v>
       </c>
       <c r="H250" t="n">
         <v>1.084081632653061</v>
@@ -11697,13 +11697,13 @@
         <v>58.28571428571428</v>
       </c>
       <c r="K250" t="n">
-        <v>6.900697712550521</v>
+        <v>3.8828</v>
       </c>
       <c r="L250" t="n">
-        <v>2.0374735</v>
+        <v>2.005449</v>
       </c>
       <c r="M250" t="n">
-        <v>2.953140010291512</v>
+        <v>2.98739791665204</v>
       </c>
     </row>
     <row r="251">
@@ -11856,7 +11856,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0.2163974669765151</v>
+        <v>0.2159233667233815</v>
       </c>
       <c r="E254" t="n">
         <v>15.18189395193422</v>
@@ -12081,16 +12081,16 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0.1912348232042462</v>
+        <v>0.1912348232042452</v>
       </c>
       <c r="E259" t="n">
-        <v>53.1104344519664</v>
+        <v>52.17565954883852</v>
       </c>
       <c r="F259" t="n">
-        <v>11.35171085862393</v>
+        <v>11.44054093116002</v>
       </c>
       <c r="G259" t="n">
-        <v>-37.45836465532041</v>
+        <v>-37.45706803557959</v>
       </c>
       <c r="H259" t="n">
         <v>0.9937499999999999</v>
@@ -12102,13 +12102,13 @@
         <v>54.6875</v>
       </c>
       <c r="K259" t="n">
-        <v>4.92903126716011</v>
+        <v>3.734184</v>
       </c>
       <c r="L259" t="n">
-        <v>1.858198393655716</v>
+        <v>1.879746014928967</v>
       </c>
       <c r="M259" t="n">
-        <v>3.008720701356988</v>
+        <v>3.013912543318883</v>
       </c>
     </row>
     <row r="260">
@@ -12351,13 +12351,13 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0.2637973416840714</v>
+        <v>0.2637973382540788</v>
       </c>
       <c r="E265" t="n">
-        <v>12.2907554920897</v>
+        <v>12.36002454216462</v>
       </c>
       <c r="F265" t="n">
-        <v>20.14484411779364</v>
+        <v>20.14822264932885</v>
       </c>
       <c r="G265" t="n">
         <v>-100.7217264232313</v>
@@ -12441,16 +12441,16 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0.1389632880917704</v>
+        <v>0.1389632880917706</v>
       </c>
       <c r="E267" t="n">
-        <v>58.32597282767453</v>
+        <v>58.55539574896814</v>
       </c>
       <c r="F267" t="n">
-        <v>7.008233717418752</v>
+        <v>6.964294343498919</v>
       </c>
       <c r="G267" t="n">
-        <v>-57.60011499988376</v>
+        <v>-57.60106697990659</v>
       </c>
       <c r="H267" t="n">
         <v>0.7387755102040815</v>
@@ -12462,13 +12462,13 @@
         <v>35.51020408163266</v>
       </c>
       <c r="K267" t="n">
-        <v>3.187612955636224</v>
+        <v>3.358163160564233</v>
       </c>
       <c r="L267" t="n">
-        <v>1.940065965513091</v>
+        <v>1.928648452939868</v>
       </c>
       <c r="M267" t="n">
-        <v>2.82328623350862</v>
+        <v>2.816662404207686</v>
       </c>
     </row>
     <row r="268">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0.1295310736799275</v>
+        <v>0.1294725290459626</v>
       </c>
       <c r="E278" t="n">
         <v>14.91559755676484</v>
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0.1393207674312915</v>
+        <v>0.1718993410985667</v>
       </c>
       <c r="E281" t="n">
         <v>12.60183519638423</v>
@@ -13116,7 +13116,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0.1479833935364185</v>
+        <v>0.1484315499816888</v>
       </c>
       <c r="E282" t="n">
         <v>16.2711519616322</v>
@@ -13341,16 +13341,16 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0.2197561925197967</v>
+        <v>0.2197561925197956</v>
       </c>
       <c r="E287" t="n">
-        <v>15.90768170434497</v>
+        <v>15.91926556484369</v>
       </c>
       <c r="F287" t="n">
-        <v>10.40502885416976</v>
+        <v>10.40502885415973</v>
       </c>
       <c r="G287" t="n">
-        <v>-34.15375572617994</v>
+        <v>-34.15333240391841</v>
       </c>
       <c r="H287" t="n">
         <v>0.9</v>
@@ -13362,13 +13362,13 @@
         <v>44.16</v>
       </c>
       <c r="K287" t="n">
-        <v>3.764301134458738</v>
+        <v>3.775734845944985</v>
       </c>
       <c r="L287" t="n">
         <v>1.962510361881822</v>
       </c>
       <c r="M287" t="n">
-        <v>2.831061297653445</v>
+        <v>2.92910715390308</v>
       </c>
     </row>
     <row r="288">
@@ -13431,16 +13431,16 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0.2302974688176181</v>
+        <v>0.2302974688176183</v>
       </c>
       <c r="E289" t="n">
-        <v>15.8899453055084</v>
+        <v>15.90470168348595</v>
       </c>
       <c r="F289" t="n">
-        <v>10.46538126140717</v>
+        <v>10.46538126140299</v>
       </c>
       <c r="G289" t="n">
-        <v>-34.26901487971016</v>
+        <v>-34.26839057050901</v>
       </c>
       <c r="H289" t="n">
         <v>0.8952</v>
@@ -13452,13 +13452,13 @@
         <v>43.44</v>
       </c>
       <c r="K289" t="n">
-        <v>3.746928197675556</v>
+        <v>3.761370930234074</v>
       </c>
       <c r="L289" t="n">
         <v>1.961756850978783</v>
       </c>
       <c r="M289" t="n">
-        <v>2.822356080873618</v>
+        <v>2.91226108103042</v>
       </c>
     </row>
     <row r="290">
@@ -13566,7 +13566,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0.06802322015516001</v>
+        <v>0.06849978776785319</v>
       </c>
       <c r="E292" t="n">
         <v>19.95006257402531</v>
@@ -13701,16 +13701,16 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0.2933932864524388</v>
+        <v>0.2933932864524367</v>
       </c>
       <c r="E295" t="n">
-        <v>9.83012221073831</v>
+        <v>10.1016132748887</v>
       </c>
       <c r="F295" t="n">
-        <v>22.91910830718785</v>
+        <v>22.92467132244116</v>
       </c>
       <c r="G295" t="n">
-        <v>-20.10630832232187</v>
+        <v>-20.10842048081953</v>
       </c>
       <c r="H295" t="n">
         <v>0.375</v>
@@ -13722,13 +13722,13 @@
         <v>13.5</v>
       </c>
       <c r="K295" t="n">
-        <v>3.115675877158095</v>
+        <v>3.310122279781357</v>
       </c>
       <c r="L295" t="n">
-        <v>2.474371916724901</v>
+        <v>2.476739491049105</v>
       </c>
       <c r="M295" t="n">
-        <v>3.488007807354237</v>
+        <v>3.503519314193726</v>
       </c>
     </row>
     <row r="296">
@@ -14016,7 +14016,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0.2341591565140524</v>
+        <v>0.2341602669975368</v>
       </c>
       <c r="E302" t="n">
         <v>13.93753671408548</v>
@@ -14601,7 +14601,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0.3184977539808089</v>
+        <v>0.3184976215315468</v>
       </c>
       <c r="E315" t="n">
         <v>13.5161533459285</v>
@@ -15006,7 +15006,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0.1374825437366913</v>
+        <v>0.1374929516527266</v>
       </c>
       <c r="E324" t="n">
         <v>14.59136005033485</v>
@@ -15051,16 +15051,16 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0.2210812075940856</v>
+        <v>0.2220011530721031</v>
       </c>
       <c r="E325" t="n">
-        <v>16.45284855956054</v>
+        <v>16.42139960101507</v>
       </c>
       <c r="F325" t="n">
-        <v>-0.3975568573342567</v>
+        <v>-0.4085272444702435</v>
       </c>
       <c r="G325" t="n">
-        <v>-33.56788899900242</v>
+        <v>-33.5676891289995</v>
       </c>
       <c r="H325" t="n">
         <v>1.039305555555556</v>
@@ -15072,13 +15072,13 @@
         <v>50.45833333333334</v>
       </c>
       <c r="K325" t="n">
-        <v>3.959046038033585</v>
+        <v>3.925107243619184</v>
       </c>
       <c r="L325" t="n">
-        <v>1.963171950096636</v>
+        <v>1.960240127869684</v>
       </c>
       <c r="M325" t="n">
-        <v>2.847589546855811</v>
+        <v>2.888371357784621</v>
       </c>
     </row>
     <row r="326">
@@ -15411,16 +15411,16 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0.05437210920895477</v>
+        <v>0.05437210920895564</v>
       </c>
       <c r="E333" t="n">
-        <v>13.03622163607541</v>
+        <v>13.14954968076189</v>
       </c>
       <c r="F333" t="n">
-        <v>15.30012090301311</v>
+        <v>15.30012090300271</v>
       </c>
       <c r="G333" t="n">
-        <v>-35.67518727638205</v>
+        <v>-35.67396396008826</v>
       </c>
       <c r="H333" t="n">
         <v>0.8687999999999999</v>
@@ -15432,13 +15432,13 @@
         <v>41.76000000000001</v>
       </c>
       <c r="K333" t="n">
-        <v>3.301401157659716</v>
+        <v>3.389468597915057</v>
       </c>
       <c r="L333" t="n">
         <v>2.018265263756581</v>
       </c>
       <c r="M333" t="n">
-        <v>2.81644999409468</v>
+        <v>2.874306457299193</v>
       </c>
     </row>
     <row r="334">
@@ -15501,16 +15501,16 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0.2239568770481138</v>
+        <v>0.2240701904789963</v>
       </c>
       <c r="E335" t="n">
-        <v>13.45959704887719</v>
+        <v>13.66277608496477</v>
       </c>
       <c r="F335" t="n">
-        <v>14.39788179607763</v>
+        <v>14.3978817960723</v>
       </c>
       <c r="G335" t="n">
-        <v>-42.04631826210373</v>
+        <v>-42.04631399619207</v>
       </c>
       <c r="H335" t="n">
         <v>0.8376859504132231</v>
@@ -15522,13 +15522,13 @@
         <v>40.26446280991735</v>
       </c>
       <c r="K335" t="n">
-        <v>3.181766390696774</v>
+        <v>3.331325301184634</v>
       </c>
       <c r="L335" t="n">
         <v>1.958619420459366</v>
       </c>
       <c r="M335" t="n">
-        <v>2.78577820975002</v>
+        <v>2.801728229348427</v>
       </c>
     </row>
     <row r="336">
@@ -15546,16 +15546,16 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0.2108436379733289</v>
+        <v>0.2108436379733288</v>
       </c>
       <c r="E336" t="n">
-        <v>14.1910075302566</v>
+        <v>14.28741310967329</v>
       </c>
       <c r="F336" t="n">
-        <v>0.3212686741655322</v>
+        <v>0.3212686741583486</v>
       </c>
       <c r="G336" t="n">
-        <v>-42.91033095441792</v>
+        <v>-42.90917341121207</v>
       </c>
       <c r="H336" t="n">
         <v>0.8311224489795919</v>
@@ -15567,13 +15567,13 @@
         <v>39.94897959183673</v>
       </c>
       <c r="K336" t="n">
-        <v>3.286358962291897</v>
+        <v>3.360292643915463</v>
       </c>
       <c r="L336" t="n">
         <v>1.964968032935647</v>
       </c>
       <c r="M336" t="n">
-        <v>2.798164290353049</v>
+        <v>2.808655699285209</v>
       </c>
     </row>
     <row r="337">
@@ -15591,16 +15591,16 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0.4101938939425172</v>
+        <v>0.4101938939425161</v>
       </c>
       <c r="E337" t="n">
-        <v>14.14826654413552</v>
+        <v>14.26465369151047</v>
       </c>
       <c r="F337" t="n">
-        <v>-1.565994023966407</v>
+        <v>-1.565994023963579</v>
       </c>
       <c r="G337" t="n">
-        <v>-44.03143512702994</v>
+        <v>-44.02968827493905</v>
       </c>
       <c r="H337" t="n">
         <v>0.8267128027681663</v>
@@ -15612,13 +15612,13 @@
         <v>39.73702422145328</v>
       </c>
       <c r="K337" t="n">
-        <v>3.254611663668849</v>
+        <v>3.342540004415377</v>
       </c>
       <c r="L337" t="n">
         <v>1.967508422626637</v>
       </c>
       <c r="M337" t="n">
-        <v>2.800460789108104</v>
+        <v>2.809937443283124</v>
       </c>
     </row>
     <row r="338">
@@ -15681,7 +15681,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0.2628345791688893</v>
+        <v>0.2631799797885149</v>
       </c>
       <c r="E339" t="n">
         <v>13.87518418947919</v>
@@ -15774,13 +15774,13 @@
         <v>0.1882127355214512</v>
       </c>
       <c r="E341" t="n">
-        <v>13.88658034948289</v>
+        <v>13.8955601348525</v>
       </c>
       <c r="F341" t="n">
-        <v>12.81556020998977</v>
+        <v>12.81556020998259</v>
       </c>
       <c r="G341" t="n">
-        <v>-34.67991056557226</v>
+        <v>-34.67949033076187</v>
       </c>
       <c r="H341" t="n">
         <v>0.9071999999999999</v>
@@ -15792,13 +15792,13 @@
         <v>44.16</v>
       </c>
       <c r="K341" t="n">
-        <v>3.707981958139025</v>
+        <v>3.716575944185367</v>
       </c>
       <c r="L341" t="n">
-        <v>1.933263841489403</v>
+        <v>1.933263841489402</v>
       </c>
       <c r="M341" t="n">
-        <v>2.788722531827306</v>
+        <v>2.881036003394411</v>
       </c>
     </row>
     <row r="342">
@@ -15816,7 +15816,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0.1886126381202601</v>
+        <v>0.1886114975112792</v>
       </c>
       <c r="E342" t="n">
         <v>12.80717680626599</v>

--- a/data/processed/IMT_Classification_Dataset_Reduced_Feature_Set_v10.xlsx
+++ b/data/processed/IMT_Classification_Dataset_Reduced_Feature_Set_v10.xlsx
@@ -9737,7 +9737,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>../data/Structures/Insulators/PdO_CollCode26598.cif</t>
+          <t>../data/Structures/Insulators/PdO_CollCode_26598.cif</t>
         </is>
       </c>
       <c r="D207" t="n">
